--- a/data/only_correlated_data.xlsx
+++ b/data/only_correlated_data.xlsx
@@ -364,7 +364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,12 +385,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ксарелто</t>
+          <t>дексаметазон</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>дексаметазон</t>
+          <t>deaths</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -400,24 +400,24 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>не чувствую запахи</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>пропало обоняние</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>не чувствую запахи</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>симптомы ковид</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>КТ легких</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>симптомы ковид</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>пропал вкус</t>
@@ -425,17 +425,17 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>цефтриаксон</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>курантил</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>пневмония взрослый</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>цефтриаксон</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>курантил</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -457,37 +457,37 @@
         <v>18030</v>
       </c>
       <c r="C2" t="n">
-        <v>136523</v>
+        <v>359379</v>
       </c>
       <c r="D2" t="n">
-        <v>359379</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>40001</v>
       </c>
       <c r="F2" t="n">
+        <v>27206</v>
+      </c>
+      <c r="G2" t="n">
         <v>7708</v>
       </c>
-      <c r="G2" t="n">
-        <v>27206</v>
-      </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>33793</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>5185</v>
       </c>
       <c r="K2" t="n">
+        <v>363520</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90205</v>
+      </c>
+      <c r="M2" t="n">
         <v>145258</v>
-      </c>
-      <c r="L2" t="n">
-        <v>363520</v>
-      </c>
-      <c r="M2" t="n">
-        <v>90205</v>
       </c>
       <c r="N2" t="n">
         <v>81685</v>
@@ -504,37 +504,37 @@
         <v>18422</v>
       </c>
       <c r="C3" t="n">
-        <v>145292</v>
+        <v>369541</v>
       </c>
       <c r="D3" t="n">
-        <v>369541</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>47104</v>
       </c>
       <c r="F3" t="n">
+        <v>26890</v>
+      </c>
+      <c r="G3" t="n">
         <v>7867</v>
       </c>
-      <c r="G3" t="n">
-        <v>26890</v>
-      </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>37552</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>5356</v>
       </c>
       <c r="K3" t="n">
+        <v>372154</v>
+      </c>
+      <c r="L3" t="n">
+        <v>89017</v>
+      </c>
+      <c r="M3" t="n">
         <v>136980</v>
-      </c>
-      <c r="L3" t="n">
-        <v>372154</v>
-      </c>
-      <c r="M3" t="n">
-        <v>89017</v>
       </c>
       <c r="N3" t="n">
         <v>80572</v>
@@ -551,37 +551,37 @@
         <v>51705</v>
       </c>
       <c r="C4" t="n">
-        <v>154749</v>
+        <v>370322</v>
       </c>
       <c r="D4" t="n">
-        <v>370322</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>80002</v>
       </c>
       <c r="F4" t="n">
+        <v>29064</v>
+      </c>
+      <c r="G4" t="n">
         <v>9661</v>
       </c>
-      <c r="G4" t="n">
-        <v>29064</v>
-      </c>
       <c r="H4" t="n">
+        <v>5342</v>
+      </c>
+      <c r="I4" t="n">
         <v>45799</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5342</v>
       </c>
       <c r="J4" t="n">
         <v>6306</v>
       </c>
       <c r="K4" t="n">
+        <v>370069</v>
+      </c>
+      <c r="L4" t="n">
+        <v>93204</v>
+      </c>
+      <c r="M4" t="n">
         <v>243894</v>
-      </c>
-      <c r="L4" t="n">
-        <v>370069</v>
-      </c>
-      <c r="M4" t="n">
-        <v>93204</v>
       </c>
       <c r="N4" t="n">
         <v>88217</v>
@@ -598,37 +598,37 @@
         <v>161915</v>
       </c>
       <c r="C5" t="n">
-        <v>120008</v>
+        <v>340370</v>
       </c>
       <c r="D5" t="n">
-        <v>340370</v>
+        <v>1056</v>
       </c>
       <c r="E5" t="n">
         <v>242133</v>
       </c>
       <c r="F5" t="n">
+        <v>68856</v>
+      </c>
+      <c r="G5" t="n">
         <v>70342</v>
       </c>
-      <c r="G5" t="n">
-        <v>68856</v>
-      </c>
       <c r="H5" t="n">
+        <v>24202</v>
+      </c>
+      <c r="I5" t="n">
         <v>402738</v>
-      </c>
-      <c r="I5" t="n">
-        <v>24202</v>
       </c>
       <c r="J5" t="n">
         <v>28752</v>
       </c>
       <c r="K5" t="n">
+        <v>363211</v>
+      </c>
+      <c r="L5" t="n">
+        <v>87129</v>
+      </c>
+      <c r="M5" t="n">
         <v>392322</v>
-      </c>
-      <c r="L5" t="n">
-        <v>363211</v>
-      </c>
-      <c r="M5" t="n">
-        <v>87129</v>
       </c>
       <c r="N5" t="n">
         <v>111358</v>
@@ -645,37 +645,37 @@
         <v>232897</v>
       </c>
       <c r="C6" t="n">
-        <v>130078</v>
+        <v>347694</v>
       </c>
       <c r="D6" t="n">
-        <v>347694</v>
+        <v>3620</v>
       </c>
       <c r="E6" t="n">
         <v>266320</v>
       </c>
       <c r="F6" t="n">
+        <v>104607</v>
+      </c>
+      <c r="G6" t="n">
         <v>164562</v>
       </c>
-      <c r="G6" t="n">
-        <v>104607</v>
-      </c>
       <c r="H6" t="n">
+        <v>49736</v>
+      </c>
+      <c r="I6" t="n">
         <v>630675</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49736</v>
       </c>
       <c r="J6" t="n">
         <v>66762</v>
       </c>
       <c r="K6" t="n">
+        <v>404747</v>
+      </c>
+      <c r="L6" t="n">
+        <v>138732</v>
+      </c>
+      <c r="M6" t="n">
         <v>352732</v>
-      </c>
-      <c r="L6" t="n">
-        <v>404747</v>
-      </c>
-      <c r="M6" t="n">
-        <v>138732</v>
       </c>
       <c r="N6" t="n">
         <v>111841</v>
@@ -692,37 +692,37 @@
         <v>144059</v>
       </c>
       <c r="C7" t="n">
-        <v>142300</v>
+        <v>482961</v>
       </c>
       <c r="D7" t="n">
-        <v>482961</v>
+        <v>4613</v>
       </c>
       <c r="E7" t="n">
         <v>153062</v>
       </c>
       <c r="F7" t="n">
+        <v>93044</v>
+      </c>
+      <c r="G7" t="n">
         <v>163733</v>
       </c>
-      <c r="G7" t="n">
-        <v>93044</v>
-      </c>
       <c r="H7" t="n">
+        <v>64569</v>
+      </c>
+      <c r="I7" t="n">
         <v>431977</v>
-      </c>
-      <c r="I7" t="n">
-        <v>64569</v>
       </c>
       <c r="J7" t="n">
         <v>65229</v>
       </c>
       <c r="K7" t="n">
+        <v>334472</v>
+      </c>
+      <c r="L7" t="n">
+        <v>137197</v>
+      </c>
+      <c r="M7" t="n">
         <v>256530</v>
-      </c>
-      <c r="L7" t="n">
-        <v>334472</v>
-      </c>
-      <c r="M7" t="n">
-        <v>137197</v>
       </c>
       <c r="N7" t="n">
         <v>93630</v>
@@ -739,37 +739,37 @@
         <v>123590</v>
       </c>
       <c r="C8" t="n">
-        <v>190493</v>
+        <v>370243</v>
       </c>
       <c r="D8" t="n">
-        <v>370243</v>
+        <v>4633</v>
       </c>
       <c r="E8" t="n">
         <v>106062</v>
       </c>
       <c r="F8" t="n">
+        <v>81721</v>
+      </c>
+      <c r="G8" t="n">
         <v>137515</v>
       </c>
-      <c r="G8" t="n">
-        <v>81721</v>
-      </c>
       <c r="H8" t="n">
+        <v>94703</v>
+      </c>
+      <c r="I8" t="n">
         <v>342309</v>
-      </c>
-      <c r="I8" t="n">
-        <v>94703</v>
       </c>
       <c r="J8" t="n">
         <v>55941</v>
       </c>
       <c r="K8" t="n">
+        <v>308167</v>
+      </c>
+      <c r="L8" t="n">
+        <v>139057</v>
+      </c>
+      <c r="M8" t="n">
         <v>209733</v>
-      </c>
-      <c r="L8" t="n">
-        <v>308167</v>
-      </c>
-      <c r="M8" t="n">
-        <v>139057</v>
       </c>
       <c r="N8" t="n">
         <v>75309</v>
@@ -786,37 +786,37 @@
         <v>99508</v>
       </c>
       <c r="C9" t="n">
-        <v>217554</v>
+        <v>366554</v>
       </c>
       <c r="D9" t="n">
-        <v>366554</v>
+        <v>3189</v>
       </c>
       <c r="E9" t="n">
         <v>87095</v>
       </c>
       <c r="F9" t="n">
+        <v>77116</v>
+      </c>
+      <c r="G9" t="n">
         <v>128361</v>
       </c>
-      <c r="G9" t="n">
-        <v>77116</v>
-      </c>
       <c r="H9" t="n">
+        <v>132539</v>
+      </c>
+      <c r="I9" t="n">
         <v>314786</v>
-      </c>
-      <c r="I9" t="n">
-        <v>132539</v>
       </c>
       <c r="J9" t="n">
         <v>51010</v>
       </c>
       <c r="K9" t="n">
+        <v>309762</v>
+      </c>
+      <c r="L9" t="n">
+        <v>125752</v>
+      </c>
+      <c r="M9" t="n">
         <v>180687</v>
-      </c>
-      <c r="L9" t="n">
-        <v>309762</v>
-      </c>
-      <c r="M9" t="n">
-        <v>125752</v>
       </c>
       <c r="N9" t="n">
         <v>75120</v>
@@ -833,37 +833,37 @@
         <v>134246</v>
       </c>
       <c r="C10" t="n">
-        <v>233136</v>
+        <v>388064</v>
       </c>
       <c r="D10" t="n">
-        <v>388064</v>
+        <v>3502</v>
       </c>
       <c r="E10" t="n">
         <v>122701</v>
       </c>
       <c r="F10" t="n">
+        <v>124187</v>
+      </c>
+      <c r="G10" t="n">
         <v>215689</v>
       </c>
-      <c r="G10" t="n">
-        <v>124187</v>
-      </c>
       <c r="H10" t="n">
+        <v>158425</v>
+      </c>
+      <c r="I10" t="n">
         <v>436706</v>
-      </c>
-      <c r="I10" t="n">
-        <v>158425</v>
       </c>
       <c r="J10" t="n">
         <v>87427</v>
       </c>
       <c r="K10" t="n">
+        <v>396757</v>
+      </c>
+      <c r="L10" t="n">
+        <v>151606</v>
+      </c>
+      <c r="M10" t="n">
         <v>250302</v>
-      </c>
-      <c r="L10" t="n">
-        <v>396757</v>
-      </c>
-      <c r="M10" t="n">
-        <v>151606</v>
       </c>
       <c r="N10" t="n">
         <v>81953</v>
@@ -880,37 +880,37 @@
         <v>610173</v>
       </c>
       <c r="C11" t="n">
-        <v>601981</v>
+        <v>1143644</v>
       </c>
       <c r="D11" t="n">
-        <v>1143644</v>
+        <v>7157</v>
       </c>
       <c r="E11" t="n">
         <v>616118</v>
       </c>
       <c r="F11" t="n">
+        <v>318744</v>
+      </c>
+      <c r="G11" t="n">
         <v>719829</v>
       </c>
-      <c r="G11" t="n">
-        <v>318744</v>
-      </c>
       <c r="H11" t="n">
+        <v>355278</v>
+      </c>
+      <c r="I11" t="n">
         <v>1343914</v>
-      </c>
-      <c r="I11" t="n">
-        <v>355278</v>
       </c>
       <c r="J11" t="n">
         <v>289347</v>
       </c>
       <c r="K11" t="n">
+        <v>1855033</v>
+      </c>
+      <c r="L11" t="n">
+        <v>661910</v>
+      </c>
+      <c r="M11" t="n">
         <v>673690</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1855033</v>
-      </c>
-      <c r="M11" t="n">
-        <v>661910</v>
       </c>
       <c r="N11" t="n">
         <v>113825</v>
@@ -927,37 +927,37 @@
         <v>867258</v>
       </c>
       <c r="C12" t="n">
-        <v>858939</v>
+        <v>1555469</v>
       </c>
       <c r="D12" t="n">
-        <v>1555469</v>
+        <v>11704</v>
       </c>
       <c r="E12" t="n">
         <v>742869</v>
       </c>
       <c r="F12" t="n">
+        <v>296814</v>
+      </c>
+      <c r="G12" t="n">
         <v>721751</v>
       </c>
-      <c r="G12" t="n">
-        <v>296814</v>
-      </c>
       <c r="H12" t="n">
+        <v>300140</v>
+      </c>
+      <c r="I12" t="n">
         <v>1174088</v>
-      </c>
-      <c r="I12" t="n">
-        <v>300140</v>
       </c>
       <c r="J12" t="n">
         <v>270477</v>
       </c>
       <c r="K12" t="n">
+        <v>2767576</v>
+      </c>
+      <c r="L12" t="n">
+        <v>668566</v>
+      </c>
+      <c r="M12" t="n">
         <v>746920</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2767576</v>
-      </c>
-      <c r="M12" t="n">
-        <v>668566</v>
       </c>
       <c r="N12" t="n">
         <v>125307</v>
@@ -974,37 +974,37 @@
         <v>724799</v>
       </c>
       <c r="C13" t="n">
-        <v>875183</v>
+        <v>1630000</v>
       </c>
       <c r="D13" t="n">
-        <v>1630000</v>
+        <v>16780</v>
       </c>
       <c r="E13" t="n">
         <v>660541</v>
       </c>
       <c r="F13" t="n">
+        <v>234611</v>
+      </c>
+      <c r="G13" t="n">
         <v>545680</v>
       </c>
-      <c r="G13" t="n">
-        <v>234611</v>
-      </c>
       <c r="H13" t="n">
+        <v>252835</v>
+      </c>
+      <c r="I13" t="n">
         <v>902120</v>
-      </c>
-      <c r="I13" t="n">
-        <v>252835</v>
       </c>
       <c r="J13" t="n">
         <v>191926</v>
       </c>
       <c r="K13" t="n">
+        <v>1632492</v>
+      </c>
+      <c r="L13" t="n">
+        <v>370069</v>
+      </c>
+      <c r="M13" t="n">
         <v>564587</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1632492</v>
-      </c>
-      <c r="M13" t="n">
-        <v>370069</v>
       </c>
       <c r="N13" t="n">
         <v>114878</v>
@@ -1021,43 +1021,137 @@
         <v>546422</v>
       </c>
       <c r="C14" t="n">
-        <v>754945</v>
+        <v>1142421</v>
       </c>
       <c r="D14" t="n">
-        <v>1142421</v>
+        <v>15758</v>
       </c>
       <c r="E14" t="n">
         <v>395436</v>
       </c>
       <c r="F14" t="n">
+        <v>134986</v>
+      </c>
+      <c r="G14" t="n">
         <v>250619</v>
       </c>
-      <c r="G14" t="n">
-        <v>134986</v>
-      </c>
       <c r="H14" t="n">
+        <v>156198</v>
+      </c>
+      <c r="I14" t="n">
         <v>582976</v>
-      </c>
-      <c r="I14" t="n">
-        <v>156198</v>
       </c>
       <c r="J14" t="n">
         <v>92389</v>
       </c>
       <c r="K14" t="n">
+        <v>825507</v>
+      </c>
+      <c r="L14" t="n">
+        <v>268778</v>
+      </c>
+      <c r="M14" t="n">
         <v>345475</v>
-      </c>
-      <c r="L14" t="n">
-        <v>825507</v>
-      </c>
-      <c r="M14" t="n">
-        <v>268778</v>
       </c>
       <c r="N14" t="n">
         <v>106388</v>
       </c>
       <c r="O14" t="n">
         <v>446298</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B15" t="n">
+        <v>294748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>643012</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12671</v>
+      </c>
+      <c r="E15" t="n">
+        <v>236506</v>
+      </c>
+      <c r="F15" t="n">
+        <v>89069</v>
+      </c>
+      <c r="G15" t="n">
+        <v>106352</v>
+      </c>
+      <c r="H15" t="n">
+        <v>94799</v>
+      </c>
+      <c r="I15" t="n">
+        <v>290291</v>
+      </c>
+      <c r="J15" t="n">
+        <v>40276</v>
+      </c>
+      <c r="K15" t="n">
+        <v>407737</v>
+      </c>
+      <c r="L15" t="n">
+        <v>159315</v>
+      </c>
+      <c r="M15" t="n">
+        <v>173015</v>
+      </c>
+      <c r="N15" t="n">
+        <v>98768</v>
+      </c>
+      <c r="O15" t="n">
+        <v>250743</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B16" t="n">
+        <v>238677</v>
+      </c>
+      <c r="C16" t="n">
+        <v>585419</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12519</v>
+      </c>
+      <c r="E16" t="n">
+        <v>196889</v>
+      </c>
+      <c r="F16" t="n">
+        <v>88992</v>
+      </c>
+      <c r="G16" t="n">
+        <v>93018</v>
+      </c>
+      <c r="H16" t="n">
+        <v>83700</v>
+      </c>
+      <c r="I16" t="n">
+        <v>255069</v>
+      </c>
+      <c r="J16" t="n">
+        <v>37187</v>
+      </c>
+      <c r="K16" t="n">
+        <v>401870</v>
+      </c>
+      <c r="L16" t="n">
+        <v>146618</v>
+      </c>
+      <c r="M16" t="n">
+        <v>153481</v>
+      </c>
+      <c r="N16" t="n">
+        <v>116790</v>
+      </c>
+      <c r="O16" t="n">
+        <v>241303</v>
       </c>
     </row>
   </sheetData>
